--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Pueblos Originar" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
+++ b/fhir/ig/tei/0.2.1/ValueSet-PueblosOriginariosVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
